--- a/Patents/Integrated photonics.xlsx
+++ b/Patents/Integrated photonics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmich\OneDrive\Documenten\1 Taiwan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmich\GitHub\NLOT\Patents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52892C8D-678D-40A4-BB8B-B7DE05D76375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A401C448-ACF6-434F-8E5D-1249D06607D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9C0E4A6-D0E8-4825-B829-0F5BF772B3A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Netherlands</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Percentage of world</t>
+  </si>
+  <si>
+    <t>until mid-March 2023</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FCCC03-C924-4DFD-BF70-FDB79DA243C7}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,6 +649,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
